--- a/sequences/07_retrieval_1.xlsx
+++ b/sequences/07_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1900,6 +1900,30 @@
       <c r="F3" t="s">
         <v>206</v>
       </c>
+      <c r="G3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -2052,6 +2076,30 @@
       <c r="F7" t="s">
         <v>206</v>
       </c>
+      <c r="G7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M7" t="s">
+        <v>206</v>
+      </c>
+      <c r="N7" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -2336,6 +2384,30 @@
       <c r="F14" t="s">
         <v>206</v>
       </c>
+      <c r="G14" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" t="s">
+        <v>206</v>
+      </c>
+      <c r="M14" t="s">
+        <v>206</v>
+      </c>
+      <c r="N14" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
@@ -2576,6 +2648,30 @@
       <c r="F20" t="s">
         <v>206</v>
       </c>
+      <c r="G20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2684,6 +2780,30 @@
       <c r="F23" t="s">
         <v>206</v>
       </c>
+      <c r="G23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2968,6 +3088,30 @@
       <c r="F30" t="s">
         <v>206</v>
       </c>
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I30" t="s">
+        <v>206</v>
+      </c>
+      <c r="J30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" t="s">
+        <v>206</v>
+      </c>
+      <c r="M30" t="s">
+        <v>206</v>
+      </c>
+      <c r="N30" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -3076,6 +3220,30 @@
       <c r="F33" t="s">
         <v>206</v>
       </c>
+      <c r="G33" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" t="s">
+        <v>206</v>
+      </c>
+      <c r="I33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" t="s">
+        <v>206</v>
+      </c>
+      <c r="L33" t="s">
+        <v>206</v>
+      </c>
+      <c r="M33" t="s">
+        <v>206</v>
+      </c>
+      <c r="N33" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
@@ -3316,6 +3484,30 @@
       <c r="F39" t="s">
         <v>206</v>
       </c>
+      <c r="G39" t="s">
+        <v>206</v>
+      </c>
+      <c r="H39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" t="s">
+        <v>206</v>
+      </c>
+      <c r="J39" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" t="s">
+        <v>206</v>
+      </c>
+      <c r="L39" t="s">
+        <v>206</v>
+      </c>
+      <c r="M39" t="s">
+        <v>206</v>
+      </c>
+      <c r="N39" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3468,6 +3660,30 @@
       <c r="F43" t="s">
         <v>206</v>
       </c>
+      <c r="G43" t="s">
+        <v>206</v>
+      </c>
+      <c r="H43" t="s">
+        <v>206</v>
+      </c>
+      <c r="I43" t="s">
+        <v>206</v>
+      </c>
+      <c r="J43" t="s">
+        <v>206</v>
+      </c>
+      <c r="K43" t="s">
+        <v>206</v>
+      </c>
+      <c r="L43" t="s">
+        <v>206</v>
+      </c>
+      <c r="M43" t="s">
+        <v>206</v>
+      </c>
+      <c r="N43" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
@@ -3532,6 +3748,30 @@
       <c r="F45" t="s">
         <v>206</v>
       </c>
+      <c r="G45" t="s">
+        <v>206</v>
+      </c>
+      <c r="H45" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" t="s">
+        <v>206</v>
+      </c>
+      <c r="J45" t="s">
+        <v>206</v>
+      </c>
+      <c r="K45" t="s">
+        <v>206</v>
+      </c>
+      <c r="L45" t="s">
+        <v>206</v>
+      </c>
+      <c r="M45" t="s">
+        <v>206</v>
+      </c>
+      <c r="N45" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3552,6 +3792,30 @@
       <c r="F46" t="s">
         <v>206</v>
       </c>
+      <c r="G46" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46" t="s">
+        <v>206</v>
+      </c>
+      <c r="I46" t="s">
+        <v>206</v>
+      </c>
+      <c r="J46" t="s">
+        <v>206</v>
+      </c>
+      <c r="K46" t="s">
+        <v>206</v>
+      </c>
+      <c r="L46" t="s">
+        <v>206</v>
+      </c>
+      <c r="M46" t="s">
+        <v>206</v>
+      </c>
+      <c r="N46" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3616,6 +3880,30 @@
       <c r="F48" t="s">
         <v>206</v>
       </c>
+      <c r="G48" t="s">
+        <v>206</v>
+      </c>
+      <c r="H48" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" t="s">
+        <v>206</v>
+      </c>
+      <c r="J48" t="s">
+        <v>206</v>
+      </c>
+      <c r="K48" t="s">
+        <v>206</v>
+      </c>
+      <c r="L48" t="s">
+        <v>206</v>
+      </c>
+      <c r="M48" t="s">
+        <v>206</v>
+      </c>
+      <c r="N48" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
@@ -3900,6 +4188,30 @@
       <c r="F55" t="s">
         <v>206</v>
       </c>
+      <c r="G55" t="s">
+        <v>206</v>
+      </c>
+      <c r="H55" t="s">
+        <v>206</v>
+      </c>
+      <c r="I55" t="s">
+        <v>206</v>
+      </c>
+      <c r="J55" t="s">
+        <v>206</v>
+      </c>
+      <c r="K55" t="s">
+        <v>206</v>
+      </c>
+      <c r="L55" t="s">
+        <v>206</v>
+      </c>
+      <c r="M55" t="s">
+        <v>206</v>
+      </c>
+      <c r="N55" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -4008,6 +4320,30 @@
       <c r="F58" t="s">
         <v>206</v>
       </c>
+      <c r="G58" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" t="s">
+        <v>206</v>
+      </c>
+      <c r="I58" t="s">
+        <v>206</v>
+      </c>
+      <c r="J58" t="s">
+        <v>206</v>
+      </c>
+      <c r="K58" t="s">
+        <v>206</v>
+      </c>
+      <c r="L58" t="s">
+        <v>206</v>
+      </c>
+      <c r="M58" t="s">
+        <v>206</v>
+      </c>
+      <c r="N58" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
@@ -4160,6 +4496,30 @@
       <c r="F62" t="s">
         <v>206</v>
       </c>
+      <c r="G62" t="s">
+        <v>206</v>
+      </c>
+      <c r="H62" t="s">
+        <v>206</v>
+      </c>
+      <c r="I62" t="s">
+        <v>206</v>
+      </c>
+      <c r="J62" t="s">
+        <v>206</v>
+      </c>
+      <c r="K62" t="s">
+        <v>206</v>
+      </c>
+      <c r="L62" t="s">
+        <v>206</v>
+      </c>
+      <c r="M62" t="s">
+        <v>206</v>
+      </c>
+      <c r="N62" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
@@ -4224,6 +4584,30 @@
       <c r="F64" t="s">
         <v>206</v>
       </c>
+      <c r="G64" t="s">
+        <v>206</v>
+      </c>
+      <c r="H64" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" t="s">
+        <v>206</v>
+      </c>
+      <c r="J64" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64" t="s">
+        <v>206</v>
+      </c>
+      <c r="L64" t="s">
+        <v>206</v>
+      </c>
+      <c r="M64" t="s">
+        <v>206</v>
+      </c>
+      <c r="N64" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4508,6 +4892,30 @@
       <c r="F71" t="s">
         <v>206</v>
       </c>
+      <c r="G71" t="s">
+        <v>206</v>
+      </c>
+      <c r="H71" t="s">
+        <v>206</v>
+      </c>
+      <c r="I71" t="s">
+        <v>206</v>
+      </c>
+      <c r="J71" t="s">
+        <v>206</v>
+      </c>
+      <c r="K71" t="s">
+        <v>206</v>
+      </c>
+      <c r="L71" t="s">
+        <v>206</v>
+      </c>
+      <c r="M71" t="s">
+        <v>206</v>
+      </c>
+      <c r="N71" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
@@ -4528,6 +4936,30 @@
       <c r="F72" t="s">
         <v>206</v>
       </c>
+      <c r="G72" t="s">
+        <v>206</v>
+      </c>
+      <c r="H72" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" t="s">
+        <v>206</v>
+      </c>
+      <c r="J72" t="s">
+        <v>206</v>
+      </c>
+      <c r="K72" t="s">
+        <v>206</v>
+      </c>
+      <c r="L72" t="s">
+        <v>206</v>
+      </c>
+      <c r="M72" t="s">
+        <v>206</v>
+      </c>
+      <c r="N72" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4548,6 +4980,30 @@
       <c r="F73" t="s">
         <v>206</v>
       </c>
+      <c r="G73" t="s">
+        <v>206</v>
+      </c>
+      <c r="H73" t="s">
+        <v>206</v>
+      </c>
+      <c r="I73" t="s">
+        <v>206</v>
+      </c>
+      <c r="J73" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" t="s">
+        <v>206</v>
+      </c>
+      <c r="L73" t="s">
+        <v>206</v>
+      </c>
+      <c r="M73" t="s">
+        <v>206</v>
+      </c>
+      <c r="N73" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4612,6 +5068,30 @@
       <c r="F75" t="s">
         <v>206</v>
       </c>
+      <c r="G75" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75" t="s">
+        <v>206</v>
+      </c>
+      <c r="I75" t="s">
+        <v>206</v>
+      </c>
+      <c r="J75" t="s">
+        <v>206</v>
+      </c>
+      <c r="K75" t="s">
+        <v>206</v>
+      </c>
+      <c r="L75" t="s">
+        <v>206</v>
+      </c>
+      <c r="M75" t="s">
+        <v>206</v>
+      </c>
+      <c r="N75" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
@@ -4852,6 +5332,30 @@
       <c r="F81" t="s">
         <v>206</v>
       </c>
+      <c r="G81" t="s">
+        <v>206</v>
+      </c>
+      <c r="H81" t="s">
+        <v>206</v>
+      </c>
+      <c r="I81" t="s">
+        <v>206</v>
+      </c>
+      <c r="J81" t="s">
+        <v>206</v>
+      </c>
+      <c r="K81" t="s">
+        <v>206</v>
+      </c>
+      <c r="L81" t="s">
+        <v>206</v>
+      </c>
+      <c r="M81" t="s">
+        <v>206</v>
+      </c>
+      <c r="N81" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
@@ -4916,6 +5420,30 @@
       <c r="F83" t="s">
         <v>206</v>
       </c>
+      <c r="G83" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" t="s">
+        <v>206</v>
+      </c>
+      <c r="I83" t="s">
+        <v>206</v>
+      </c>
+      <c r="J83" t="s">
+        <v>206</v>
+      </c>
+      <c r="K83" t="s">
+        <v>206</v>
+      </c>
+      <c r="L83" t="s">
+        <v>206</v>
+      </c>
+      <c r="M83" t="s">
+        <v>206</v>
+      </c>
+      <c r="N83" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
@@ -5024,6 +5552,30 @@
       <c r="F86" t="s">
         <v>206</v>
       </c>
+      <c r="G86" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" t="s">
+        <v>206</v>
+      </c>
+      <c r="I86" t="s">
+        <v>206</v>
+      </c>
+      <c r="J86" t="s">
+        <v>206</v>
+      </c>
+      <c r="K86" t="s">
+        <v>206</v>
+      </c>
+      <c r="L86" t="s">
+        <v>206</v>
+      </c>
+      <c r="M86" t="s">
+        <v>206</v>
+      </c>
+      <c r="N86" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -5220,6 +5772,30 @@
       <c r="F91" t="s">
         <v>206</v>
       </c>
+      <c r="G91" t="s">
+        <v>206</v>
+      </c>
+      <c r="H91" t="s">
+        <v>206</v>
+      </c>
+      <c r="I91" t="s">
+        <v>206</v>
+      </c>
+      <c r="J91" t="s">
+        <v>206</v>
+      </c>
+      <c r="K91" t="s">
+        <v>206</v>
+      </c>
+      <c r="L91" t="s">
+        <v>206</v>
+      </c>
+      <c r="M91" t="s">
+        <v>206</v>
+      </c>
+      <c r="N91" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5284,6 +5860,30 @@
       <c r="F93" t="s">
         <v>206</v>
       </c>
+      <c r="G93" t="s">
+        <v>206</v>
+      </c>
+      <c r="H93" t="s">
+        <v>206</v>
+      </c>
+      <c r="I93" t="s">
+        <v>206</v>
+      </c>
+      <c r="J93" t="s">
+        <v>206</v>
+      </c>
+      <c r="K93" t="s">
+        <v>206</v>
+      </c>
+      <c r="L93" t="s">
+        <v>206</v>
+      </c>
+      <c r="M93" t="s">
+        <v>206</v>
+      </c>
+      <c r="N93" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5304,6 +5904,30 @@
       <c r="F94" t="s">
         <v>206</v>
       </c>
+      <c r="G94" t="s">
+        <v>206</v>
+      </c>
+      <c r="H94" t="s">
+        <v>206</v>
+      </c>
+      <c r="I94" t="s">
+        <v>206</v>
+      </c>
+      <c r="J94" t="s">
+        <v>206</v>
+      </c>
+      <c r="K94" t="s">
+        <v>206</v>
+      </c>
+      <c r="L94" t="s">
+        <v>206</v>
+      </c>
+      <c r="M94" t="s">
+        <v>206</v>
+      </c>
+      <c r="N94" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5368,6 +5992,30 @@
       <c r="F96" t="s">
         <v>206</v>
       </c>
+      <c r="G96" t="s">
+        <v>206</v>
+      </c>
+      <c r="H96" t="s">
+        <v>206</v>
+      </c>
+      <c r="I96" t="s">
+        <v>206</v>
+      </c>
+      <c r="J96" t="s">
+        <v>206</v>
+      </c>
+      <c r="K96" t="s">
+        <v>206</v>
+      </c>
+      <c r="L96" t="s">
+        <v>206</v>
+      </c>
+      <c r="M96" t="s">
+        <v>206</v>
+      </c>
+      <c r="N96" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5388,6 +6036,30 @@
       <c r="F97" t="s">
         <v>206</v>
       </c>
+      <c r="G97" t="s">
+        <v>206</v>
+      </c>
+      <c r="H97" t="s">
+        <v>206</v>
+      </c>
+      <c r="I97" t="s">
+        <v>206</v>
+      </c>
+      <c r="J97" t="s">
+        <v>206</v>
+      </c>
+      <c r="K97" t="s">
+        <v>206</v>
+      </c>
+      <c r="L97" t="s">
+        <v>206</v>
+      </c>
+      <c r="M97" t="s">
+        <v>206</v>
+      </c>
+      <c r="N97" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
@@ -5408,6 +6080,30 @@
       <c r="F98" t="s">
         <v>206</v>
       </c>
+      <c r="G98" t="s">
+        <v>206</v>
+      </c>
+      <c r="H98" t="s">
+        <v>206</v>
+      </c>
+      <c r="I98" t="s">
+        <v>206</v>
+      </c>
+      <c r="J98" t="s">
+        <v>206</v>
+      </c>
+      <c r="K98" t="s">
+        <v>206</v>
+      </c>
+      <c r="L98" t="s">
+        <v>206</v>
+      </c>
+      <c r="M98" t="s">
+        <v>206</v>
+      </c>
+      <c r="N98" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
@@ -5428,6 +6124,30 @@
       <c r="F99" t="s">
         <v>206</v>
       </c>
+      <c r="G99" t="s">
+        <v>206</v>
+      </c>
+      <c r="H99" t="s">
+        <v>206</v>
+      </c>
+      <c r="I99" t="s">
+        <v>206</v>
+      </c>
+      <c r="J99" t="s">
+        <v>206</v>
+      </c>
+      <c r="K99" t="s">
+        <v>206</v>
+      </c>
+      <c r="L99" t="s">
+        <v>206</v>
+      </c>
+      <c r="M99" t="s">
+        <v>206</v>
+      </c>
+      <c r="N99" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
@@ -5668,6 +6388,30 @@
       <c r="F105" t="s">
         <v>206</v>
       </c>
+      <c r="G105" t="s">
+        <v>206</v>
+      </c>
+      <c r="H105" t="s">
+        <v>206</v>
+      </c>
+      <c r="I105" t="s">
+        <v>206</v>
+      </c>
+      <c r="J105" t="s">
+        <v>206</v>
+      </c>
+      <c r="K105" t="s">
+        <v>206</v>
+      </c>
+      <c r="L105" t="s">
+        <v>206</v>
+      </c>
+      <c r="M105" t="s">
+        <v>206</v>
+      </c>
+      <c r="N105" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
@@ -5688,6 +6432,30 @@
       <c r="F106" t="s">
         <v>206</v>
       </c>
+      <c r="G106" t="s">
+        <v>206</v>
+      </c>
+      <c r="H106" t="s">
+        <v>206</v>
+      </c>
+      <c r="I106" t="s">
+        <v>206</v>
+      </c>
+      <c r="J106" t="s">
+        <v>206</v>
+      </c>
+      <c r="K106" t="s">
+        <v>206</v>
+      </c>
+      <c r="L106" t="s">
+        <v>206</v>
+      </c>
+      <c r="M106" t="s">
+        <v>206</v>
+      </c>
+      <c r="N106" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5928,6 +6696,30 @@
       <c r="F112" t="s">
         <v>206</v>
       </c>
+      <c r="G112" t="s">
+        <v>206</v>
+      </c>
+      <c r="H112" t="s">
+        <v>206</v>
+      </c>
+      <c r="I112" t="s">
+        <v>206</v>
+      </c>
+      <c r="J112" t="s">
+        <v>206</v>
+      </c>
+      <c r="K112" t="s">
+        <v>206</v>
+      </c>
+      <c r="L112" t="s">
+        <v>206</v>
+      </c>
+      <c r="M112" t="s">
+        <v>206</v>
+      </c>
+      <c r="N112" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
@@ -5948,6 +6740,30 @@
       <c r="F113" t="s">
         <v>206</v>
       </c>
+      <c r="G113" t="s">
+        <v>206</v>
+      </c>
+      <c r="H113" t="s">
+        <v>206</v>
+      </c>
+      <c r="I113" t="s">
+        <v>206</v>
+      </c>
+      <c r="J113" t="s">
+        <v>206</v>
+      </c>
+      <c r="K113" t="s">
+        <v>206</v>
+      </c>
+      <c r="L113" t="s">
+        <v>206</v>
+      </c>
+      <c r="M113" t="s">
+        <v>206</v>
+      </c>
+      <c r="N113" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5968,6 +6784,30 @@
       <c r="F114" t="s">
         <v>206</v>
       </c>
+      <c r="G114" t="s">
+        <v>206</v>
+      </c>
+      <c r="H114" t="s">
+        <v>206</v>
+      </c>
+      <c r="I114" t="s">
+        <v>206</v>
+      </c>
+      <c r="J114" t="s">
+        <v>206</v>
+      </c>
+      <c r="K114" t="s">
+        <v>206</v>
+      </c>
+      <c r="L114" t="s">
+        <v>206</v>
+      </c>
+      <c r="M114" t="s">
+        <v>206</v>
+      </c>
+      <c r="N114" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
@@ -6120,6 +6960,30 @@
       <c r="F118" t="s">
         <v>206</v>
       </c>
+      <c r="G118" t="s">
+        <v>206</v>
+      </c>
+      <c r="H118" t="s">
+        <v>206</v>
+      </c>
+      <c r="I118" t="s">
+        <v>206</v>
+      </c>
+      <c r="J118" t="s">
+        <v>206</v>
+      </c>
+      <c r="K118" t="s">
+        <v>206</v>
+      </c>
+      <c r="L118" t="s">
+        <v>206</v>
+      </c>
+      <c r="M118" t="s">
+        <v>206</v>
+      </c>
+      <c r="N118" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
@@ -6140,6 +7004,30 @@
       <c r="F119" t="s">
         <v>206</v>
       </c>
+      <c r="G119" t="s">
+        <v>206</v>
+      </c>
+      <c r="H119" t="s">
+        <v>206</v>
+      </c>
+      <c r="I119" t="s">
+        <v>206</v>
+      </c>
+      <c r="J119" t="s">
+        <v>206</v>
+      </c>
+      <c r="K119" t="s">
+        <v>206</v>
+      </c>
+      <c r="L119" t="s">
+        <v>206</v>
+      </c>
+      <c r="M119" t="s">
+        <v>206</v>
+      </c>
+      <c r="N119" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6160,6 +7048,30 @@
       <c r="F120" t="s">
         <v>206</v>
       </c>
+      <c r="G120" t="s">
+        <v>206</v>
+      </c>
+      <c r="H120" t="s">
+        <v>206</v>
+      </c>
+      <c r="I120" t="s">
+        <v>206</v>
+      </c>
+      <c r="J120" t="s">
+        <v>206</v>
+      </c>
+      <c r="K120" t="s">
+        <v>206</v>
+      </c>
+      <c r="L120" t="s">
+        <v>206</v>
+      </c>
+      <c r="M120" t="s">
+        <v>206</v>
+      </c>
+      <c r="N120" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6312,6 +7224,30 @@
       <c r="F124" t="s">
         <v>206</v>
       </c>
+      <c r="G124" t="s">
+        <v>206</v>
+      </c>
+      <c r="H124" t="s">
+        <v>206</v>
+      </c>
+      <c r="I124" t="s">
+        <v>206</v>
+      </c>
+      <c r="J124" t="s">
+        <v>206</v>
+      </c>
+      <c r="K124" t="s">
+        <v>206</v>
+      </c>
+      <c r="L124" t="s">
+        <v>206</v>
+      </c>
+      <c r="M124" t="s">
+        <v>206</v>
+      </c>
+      <c r="N124" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6596,6 +7532,30 @@
       <c r="F131" t="s">
         <v>206</v>
       </c>
+      <c r="G131" t="s">
+        <v>206</v>
+      </c>
+      <c r="H131" t="s">
+        <v>206</v>
+      </c>
+      <c r="I131" t="s">
+        <v>206</v>
+      </c>
+      <c r="J131" t="s">
+        <v>206</v>
+      </c>
+      <c r="K131" t="s">
+        <v>206</v>
+      </c>
+      <c r="L131" t="s">
+        <v>206</v>
+      </c>
+      <c r="M131" t="s">
+        <v>206</v>
+      </c>
+      <c r="N131" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
@@ -6616,6 +7576,30 @@
       <c r="F132" t="s">
         <v>206</v>
       </c>
+      <c r="G132" t="s">
+        <v>206</v>
+      </c>
+      <c r="H132" t="s">
+        <v>206</v>
+      </c>
+      <c r="I132" t="s">
+        <v>206</v>
+      </c>
+      <c r="J132" t="s">
+        <v>206</v>
+      </c>
+      <c r="K132" t="s">
+        <v>206</v>
+      </c>
+      <c r="L132" t="s">
+        <v>206</v>
+      </c>
+      <c r="M132" t="s">
+        <v>206</v>
+      </c>
+      <c r="N132" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6680,6 +7664,30 @@
       <c r="F134" t="s">
         <v>206</v>
       </c>
+      <c r="G134" t="s">
+        <v>206</v>
+      </c>
+      <c r="H134" t="s">
+        <v>206</v>
+      </c>
+      <c r="I134" t="s">
+        <v>206</v>
+      </c>
+      <c r="J134" t="s">
+        <v>206</v>
+      </c>
+      <c r="K134" t="s">
+        <v>206</v>
+      </c>
+      <c r="L134" t="s">
+        <v>206</v>
+      </c>
+      <c r="M134" t="s">
+        <v>206</v>
+      </c>
+      <c r="N134" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
@@ -6788,6 +7796,30 @@
       <c r="F137" t="s">
         <v>206</v>
       </c>
+      <c r="G137" t="s">
+        <v>206</v>
+      </c>
+      <c r="H137" t="s">
+        <v>206</v>
+      </c>
+      <c r="I137" t="s">
+        <v>206</v>
+      </c>
+      <c r="J137" t="s">
+        <v>206</v>
+      </c>
+      <c r="K137" t="s">
+        <v>206</v>
+      </c>
+      <c r="L137" t="s">
+        <v>206</v>
+      </c>
+      <c r="M137" t="s">
+        <v>206</v>
+      </c>
+      <c r="N137" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -6852,6 +7884,30 @@
       <c r="F139" t="s">
         <v>206</v>
       </c>
+      <c r="G139" t="s">
+        <v>206</v>
+      </c>
+      <c r="H139" t="s">
+        <v>206</v>
+      </c>
+      <c r="I139" t="s">
+        <v>206</v>
+      </c>
+      <c r="J139" t="s">
+        <v>206</v>
+      </c>
+      <c r="K139" t="s">
+        <v>206</v>
+      </c>
+      <c r="L139" t="s">
+        <v>206</v>
+      </c>
+      <c r="M139" t="s">
+        <v>206</v>
+      </c>
+      <c r="N139" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
@@ -6872,6 +7928,30 @@
       <c r="F140" t="s">
         <v>206</v>
       </c>
+      <c r="G140" t="s">
+        <v>206</v>
+      </c>
+      <c r="H140" t="s">
+        <v>206</v>
+      </c>
+      <c r="I140" t="s">
+        <v>206</v>
+      </c>
+      <c r="J140" t="s">
+        <v>206</v>
+      </c>
+      <c r="K140" t="s">
+        <v>206</v>
+      </c>
+      <c r="L140" t="s">
+        <v>206</v>
+      </c>
+      <c r="M140" t="s">
+        <v>206</v>
+      </c>
+      <c r="N140" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -7024,6 +8104,30 @@
       <c r="F144" t="s">
         <v>206</v>
       </c>
+      <c r="G144" t="s">
+        <v>206</v>
+      </c>
+      <c r="H144" t="s">
+        <v>206</v>
+      </c>
+      <c r="I144" t="s">
+        <v>206</v>
+      </c>
+      <c r="J144" t="s">
+        <v>206</v>
+      </c>
+      <c r="K144" t="s">
+        <v>206</v>
+      </c>
+      <c r="L144" t="s">
+        <v>206</v>
+      </c>
+      <c r="M144" t="s">
+        <v>206</v>
+      </c>
+      <c r="N144" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -7264,6 +8368,30 @@
       <c r="F150" t="s">
         <v>206</v>
       </c>
+      <c r="G150" t="s">
+        <v>206</v>
+      </c>
+      <c r="H150" t="s">
+        <v>206</v>
+      </c>
+      <c r="I150" t="s">
+        <v>206</v>
+      </c>
+      <c r="J150" t="s">
+        <v>206</v>
+      </c>
+      <c r="K150" t="s">
+        <v>206</v>
+      </c>
+      <c r="L150" t="s">
+        <v>206</v>
+      </c>
+      <c r="M150" t="s">
+        <v>206</v>
+      </c>
+      <c r="N150" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7372,6 +8500,30 @@
       <c r="F153" t="s">
         <v>206</v>
       </c>
+      <c r="G153" t="s">
+        <v>206</v>
+      </c>
+      <c r="H153" t="s">
+        <v>206</v>
+      </c>
+      <c r="I153" t="s">
+        <v>206</v>
+      </c>
+      <c r="J153" t="s">
+        <v>206</v>
+      </c>
+      <c r="K153" t="s">
+        <v>206</v>
+      </c>
+      <c r="L153" t="s">
+        <v>206</v>
+      </c>
+      <c r="M153" t="s">
+        <v>206</v>
+      </c>
+      <c r="N153" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
@@ -7568,6 +8720,30 @@
       <c r="F158" t="s">
         <v>206</v>
       </c>
+      <c r="G158" t="s">
+        <v>206</v>
+      </c>
+      <c r="H158" t="s">
+        <v>206</v>
+      </c>
+      <c r="I158" t="s">
+        <v>206</v>
+      </c>
+      <c r="J158" t="s">
+        <v>206</v>
+      </c>
+      <c r="K158" t="s">
+        <v>206</v>
+      </c>
+      <c r="L158" t="s">
+        <v>206</v>
+      </c>
+      <c r="M158" t="s">
+        <v>206</v>
+      </c>
+      <c r="N158" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
@@ -7588,6 +8764,30 @@
       <c r="F159" t="s">
         <v>206</v>
       </c>
+      <c r="G159" t="s">
+        <v>206</v>
+      </c>
+      <c r="H159" t="s">
+        <v>206</v>
+      </c>
+      <c r="I159" t="s">
+        <v>206</v>
+      </c>
+      <c r="J159" t="s">
+        <v>206</v>
+      </c>
+      <c r="K159" t="s">
+        <v>206</v>
+      </c>
+      <c r="L159" t="s">
+        <v>206</v>
+      </c>
+      <c r="M159" t="s">
+        <v>206</v>
+      </c>
+      <c r="N159" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7608,6 +8808,30 @@
       <c r="F160" t="s">
         <v>206</v>
       </c>
+      <c r="G160" t="s">
+        <v>206</v>
+      </c>
+      <c r="H160" t="s">
+        <v>206</v>
+      </c>
+      <c r="I160" t="s">
+        <v>206</v>
+      </c>
+      <c r="J160" t="s">
+        <v>206</v>
+      </c>
+      <c r="K160" t="s">
+        <v>206</v>
+      </c>
+      <c r="L160" t="s">
+        <v>206</v>
+      </c>
+      <c r="M160" t="s">
+        <v>206</v>
+      </c>
+      <c r="N160" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7760,6 +8984,30 @@
       <c r="F164" t="s">
         <v>206</v>
       </c>
+      <c r="G164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H164" t="s">
+        <v>206</v>
+      </c>
+      <c r="I164" t="s">
+        <v>206</v>
+      </c>
+      <c r="J164" t="s">
+        <v>206</v>
+      </c>
+      <c r="K164" t="s">
+        <v>206</v>
+      </c>
+      <c r="L164" t="s">
+        <v>206</v>
+      </c>
+      <c r="M164" t="s">
+        <v>206</v>
+      </c>
+      <c r="N164" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7868,6 +9116,30 @@
       <c r="F167" t="s">
         <v>206</v>
       </c>
+      <c r="G167" t="s">
+        <v>206</v>
+      </c>
+      <c r="H167" t="s">
+        <v>206</v>
+      </c>
+      <c r="I167" t="s">
+        <v>206</v>
+      </c>
+      <c r="J167" t="s">
+        <v>206</v>
+      </c>
+      <c r="K167" t="s">
+        <v>206</v>
+      </c>
+      <c r="L167" t="s">
+        <v>206</v>
+      </c>
+      <c r="M167" t="s">
+        <v>206</v>
+      </c>
+      <c r="N167" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -7976,6 +9248,30 @@
       <c r="F170" t="s">
         <v>206</v>
       </c>
+      <c r="G170" t="s">
+        <v>206</v>
+      </c>
+      <c r="H170" t="s">
+        <v>206</v>
+      </c>
+      <c r="I170" t="s">
+        <v>206</v>
+      </c>
+      <c r="J170" t="s">
+        <v>206</v>
+      </c>
+      <c r="K170" t="s">
+        <v>206</v>
+      </c>
+      <c r="L170" t="s">
+        <v>206</v>
+      </c>
+      <c r="M170" t="s">
+        <v>206</v>
+      </c>
+      <c r="N170" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -7996,6 +9292,30 @@
       <c r="F171" t="s">
         <v>206</v>
       </c>
+      <c r="G171" t="s">
+        <v>206</v>
+      </c>
+      <c r="H171" t="s">
+        <v>206</v>
+      </c>
+      <c r="I171" t="s">
+        <v>206</v>
+      </c>
+      <c r="J171" t="s">
+        <v>206</v>
+      </c>
+      <c r="K171" t="s">
+        <v>206</v>
+      </c>
+      <c r="L171" t="s">
+        <v>206</v>
+      </c>
+      <c r="M171" t="s">
+        <v>206</v>
+      </c>
+      <c r="N171" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
@@ -8060,6 +9380,30 @@
       <c r="F173" t="s">
         <v>206</v>
       </c>
+      <c r="G173" t="s">
+        <v>206</v>
+      </c>
+      <c r="H173" t="s">
+        <v>206</v>
+      </c>
+      <c r="I173" t="s">
+        <v>206</v>
+      </c>
+      <c r="J173" t="s">
+        <v>206</v>
+      </c>
+      <c r="K173" t="s">
+        <v>206</v>
+      </c>
+      <c r="L173" t="s">
+        <v>206</v>
+      </c>
+      <c r="M173" t="s">
+        <v>206</v>
+      </c>
+      <c r="N173" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8080,6 +9424,30 @@
       <c r="F174" t="s">
         <v>206</v>
       </c>
+      <c r="G174" t="s">
+        <v>206</v>
+      </c>
+      <c r="H174" t="s">
+        <v>206</v>
+      </c>
+      <c r="I174" t="s">
+        <v>206</v>
+      </c>
+      <c r="J174" t="s">
+        <v>206</v>
+      </c>
+      <c r="K174" t="s">
+        <v>206</v>
+      </c>
+      <c r="L174" t="s">
+        <v>206</v>
+      </c>
+      <c r="M174" t="s">
+        <v>206</v>
+      </c>
+      <c r="N174" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
@@ -8100,6 +9468,30 @@
       <c r="F175" t="s">
         <v>206</v>
       </c>
+      <c r="G175" t="s">
+        <v>206</v>
+      </c>
+      <c r="H175" t="s">
+        <v>206</v>
+      </c>
+      <c r="I175" t="s">
+        <v>206</v>
+      </c>
+      <c r="J175" t="s">
+        <v>206</v>
+      </c>
+      <c r="K175" t="s">
+        <v>206</v>
+      </c>
+      <c r="L175" t="s">
+        <v>206</v>
+      </c>
+      <c r="M175" t="s">
+        <v>206</v>
+      </c>
+      <c r="N175" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8164,6 +9556,30 @@
       <c r="F177" t="s">
         <v>206</v>
       </c>
+      <c r="G177" t="s">
+        <v>206</v>
+      </c>
+      <c r="H177" t="s">
+        <v>206</v>
+      </c>
+      <c r="I177" t="s">
+        <v>206</v>
+      </c>
+      <c r="J177" t="s">
+        <v>206</v>
+      </c>
+      <c r="K177" t="s">
+        <v>206</v>
+      </c>
+      <c r="L177" t="s">
+        <v>206</v>
+      </c>
+      <c r="M177" t="s">
+        <v>206</v>
+      </c>
+      <c r="N177" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8228,6 +9644,30 @@
       <c r="F179" t="s">
         <v>206</v>
       </c>
+      <c r="G179" t="s">
+        <v>206</v>
+      </c>
+      <c r="H179" t="s">
+        <v>206</v>
+      </c>
+      <c r="I179" t="s">
+        <v>206</v>
+      </c>
+      <c r="J179" t="s">
+        <v>206</v>
+      </c>
+      <c r="K179" t="s">
+        <v>206</v>
+      </c>
+      <c r="L179" t="s">
+        <v>206</v>
+      </c>
+      <c r="M179" t="s">
+        <v>206</v>
+      </c>
+      <c r="N179" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8292,6 +9732,30 @@
       <c r="F181" t="s">
         <v>206</v>
       </c>
+      <c r="G181" t="s">
+        <v>206</v>
+      </c>
+      <c r="H181" t="s">
+        <v>206</v>
+      </c>
+      <c r="I181" t="s">
+        <v>206</v>
+      </c>
+      <c r="J181" t="s">
+        <v>206</v>
+      </c>
+      <c r="K181" t="s">
+        <v>206</v>
+      </c>
+      <c r="L181" t="s">
+        <v>206</v>
+      </c>
+      <c r="M181" t="s">
+        <v>206</v>
+      </c>
+      <c r="N181" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
@@ -8312,6 +9776,30 @@
       <c r="F182" t="s">
         <v>206</v>
       </c>
+      <c r="G182" t="s">
+        <v>206</v>
+      </c>
+      <c r="H182" t="s">
+        <v>206</v>
+      </c>
+      <c r="I182" t="s">
+        <v>206</v>
+      </c>
+      <c r="J182" t="s">
+        <v>206</v>
+      </c>
+      <c r="K182" t="s">
+        <v>206</v>
+      </c>
+      <c r="L182" t="s">
+        <v>206</v>
+      </c>
+      <c r="M182" t="s">
+        <v>206</v>
+      </c>
+      <c r="N182" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8508,6 +9996,30 @@
       <c r="F187" t="s">
         <v>206</v>
       </c>
+      <c r="G187" t="s">
+        <v>206</v>
+      </c>
+      <c r="H187" t="s">
+        <v>206</v>
+      </c>
+      <c r="I187" t="s">
+        <v>206</v>
+      </c>
+      <c r="J187" t="s">
+        <v>206</v>
+      </c>
+      <c r="K187" t="s">
+        <v>206</v>
+      </c>
+      <c r="L187" t="s">
+        <v>206</v>
+      </c>
+      <c r="M187" t="s">
+        <v>206</v>
+      </c>
+      <c r="N187" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8570,6 +10082,30 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
+        <v>206</v>
+      </c>
+      <c r="G189" t="s">
+        <v>206</v>
+      </c>
+      <c r="H189" t="s">
+        <v>206</v>
+      </c>
+      <c r="I189" t="s">
+        <v>206</v>
+      </c>
+      <c r="J189" t="s">
+        <v>206</v>
+      </c>
+      <c r="K189" t="s">
+        <v>206</v>
+      </c>
+      <c r="L189" t="s">
+        <v>206</v>
+      </c>
+      <c r="M189" t="s">
+        <v>206</v>
+      </c>
+      <c r="N189" t="s">
         <v>206</v>
       </c>
     </row>

--- a/sequences/07_retrieval_1.xlsx
+++ b/sequences/07_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>binden</t>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>pflegen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>stillen</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>meinen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>teilen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>planen</t>
   </si>
   <si>
     <t>stören</t>
   </si>
   <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>rücken</t>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>irren</t>
   </si>
   <si>
     <t>schwören</t>
   </si>
   <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>eignen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>ächzen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
   </si>
   <si>
     <t>saufen</t>
   </si>
   <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
     <t>füllen</t>
   </si>
   <si>
-    <t>filmen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>klauen</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>beichten</t>
-  </si>
-  <si>
-    <t>handeln</t>
-  </si>
-  <si>
-    <t>mieten</t>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>platzen</t>
   </si>
   <si>
     <t>klettern</t>
   </si>
   <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>scheiden</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>wandern</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>wärmen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>holen</t>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>kichern</t>
   </si>
   <si>
     <t>flower/flower029.jpg</t>
